--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value506.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value506.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.814501602366148</v>
+        <v>1.231350064277649</v>
       </c>
       <c r="B1">
-        <v>3.124899375483035</v>
+        <v>2.511218309402466</v>
       </c>
       <c r="C1">
-        <v>2.757046652734926</v>
+        <v>4.514007091522217</v>
       </c>
       <c r="D1">
-        <v>0.9058830104675022</v>
+        <v>2.51203465461731</v>
       </c>
       <c r="E1">
-        <v>0.6594406139490468</v>
+        <v>1.073765993118286</v>
       </c>
     </row>
   </sheetData>
